--- a/Тест кейсы для Яндекс Маркет..xlsx
+++ b/Тест кейсы для Яндекс Маркет..xlsx
@@ -17,17 +17,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1606812999" val="980" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1606812999" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1606812999" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1606812999"/>
+      <pm:revision xmlns:pm="smNativeData" day="1606816076" val="980" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1606816076" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1606816076" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1606816076"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="151">
   <si>
     <t>passed</t>
   </si>
@@ -329,7 +329,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1606812999">
+            <pm:charSpec xmlns:pm="smNativeData" id="1606816076">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -400,7 +400,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1606812999">
+            <pm:charSpec xmlns:pm="smNativeData" id="1606816076">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -611,6 +611,17 @@
 Прокрутить полосу с товарами вправо/влево.</t>
   </si>
   <si>
+    <t>Проверка обратной связи.</t>
+  </si>
+  <si>
+    <t>Зайти на сайт m.market.yandex.ru/ ;
+Спуститья вниз сайта;
+Нажать на Обратная связь.</t>
+  </si>
+  <si>
+    <t>Отрывается страница с опросом.</t>
+  </si>
+  <si>
     <t>Total Automation Test</t>
   </si>
   <si>
@@ -624,7 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="11">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
@@ -634,8 +645,10 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="14" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="164" formatCode="DD/MM/YYYY;@"/>
+    <numFmt numFmtId="11" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -644,7 +657,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -660,7 +673,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -677,7 +690,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -694,7 +707,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -711,7 +724,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -728,7 +741,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" fgClr="865357" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="865357" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -745,7 +758,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" fgClr="006411" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="006411" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -761,7 +774,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -778,7 +791,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" fgClr="006411" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="006411" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="240" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="240" lang="default" weight="bold"/>
@@ -795,7 +808,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" fgClr="DD0806" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="DD0806" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -812,7 +825,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -828,7 +841,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -845,7 +858,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -862,7 +875,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" fgClr="00B050" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="00B050" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -878,7 +891,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" fgClr="00B050" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="00B050" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -895,7 +908,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -912,7 +925,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -927,7 +940,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" ulstyle="none" kern="1">
             <pm:latin face="Calibri (Основной текст)" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold"/>
@@ -943,27 +956,10 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -977,7 +973,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -994,7 +990,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="240" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="240" lang="default" weight="bold"/>
@@ -1010,10 +1006,42 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606812999" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF00B050"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="00B050" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF00B050"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606816076" fgClr="00B050" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="240" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -1038,7 +1066,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606812999" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606816076" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1049,7 +1077,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606812999" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606816076" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1060,7 +1088,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606812999" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606816076" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1074,7 +1102,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606812999" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606816076" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1085,7 +1113,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606812999" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFF58C"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606816076" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFF58C"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1096,7 +1124,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606812999" type="1" fgLvl="100" fgClr="00333399" bgLvl="0" bgClr="00003366"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606816076" type="1" fgLvl="100" fgClr="00333399" bgLvl="0" bgClr="00003366"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1107,7 +1135,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606812999" type="1" fgLvl="100" fgClr="00333399" bgLvl="0" bgClr="00003366"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606816076" type="1" fgLvl="100" fgClr="00333399" bgLvl="0" bgClr="00003366"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1118,7 +1146,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606812999" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606816076" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1129,7 +1157,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606812999" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606816076" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1140,7 +1168,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606812999" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606816076" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1162,7 +1190,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999"/>
+          <pm:border xmlns:pm="smNativeData" id="1606816076"/>
         </ext>
       </extLst>
     </border>
@@ -1181,7 +1209,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999">
+          <pm:border xmlns:pm="smNativeData" id="1606816076">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1205,7 +1233,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999">
+          <pm:border xmlns:pm="smNativeData" id="1606816076">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1228,7 +1256,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999"/>
+          <pm:border xmlns:pm="smNativeData" id="1606816076"/>
         </ext>
       </extLst>
     </border>
@@ -1247,7 +1275,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999">
+          <pm:border xmlns:pm="smNativeData" id="1606816076">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1271,7 +1299,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999"/>
+          <pm:border xmlns:pm="smNativeData" id="1606816076"/>
         </ext>
       </extLst>
     </border>
@@ -1290,7 +1318,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999">
+          <pm:border xmlns:pm="smNativeData" id="1606816076">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1313,7 +1341,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999">
+          <pm:border xmlns:pm="smNativeData" id="1606816076">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1336,7 +1364,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999">
+          <pm:border xmlns:pm="smNativeData" id="1606816076">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1360,7 +1388,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999">
+          <pm:border xmlns:pm="smNativeData" id="1606816076">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1384,7 +1412,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999"/>
+          <pm:border xmlns:pm="smNativeData" id="1606816076"/>
         </ext>
       </extLst>
     </border>
@@ -1403,7 +1431,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999">
+          <pm:border xmlns:pm="smNativeData" id="1606816076">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1427,7 +1455,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999">
+          <pm:border xmlns:pm="smNativeData" id="1606816076">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1450,7 +1478,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606812999"/>
+          <pm:border xmlns:pm="smNativeData" id="1606816076"/>
         </ext>
       </extLst>
     </border>
@@ -1459,7 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1483,7 +1511,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1606812999" l="0" r="0" t="0" b="0" textRotation="3"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1606816076" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
@@ -1542,12 +1570,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1606812999" l="192" r="0" t="0" b="0" textRotation="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1606816076" l="192" r="0" t="0" b="0" textRotation="0"/>
+        </ext>
+      </extLst>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1569,7 +1594,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1606812999" l="0" r="0" t="0" b="0" textRotation="3"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1606816076" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
@@ -1577,7 +1602,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1606812999" l="0" r="0" t="0" b="0" textRotation="3"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1606816076" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
@@ -1594,7 +1619,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1606812999" l="0" r="0" t="0" b="0" textRotation="3"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1606816076" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
@@ -1602,7 +1627,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1606812999" l="0" r="0" t="0" b="0" textRotation="3"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1606816076" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
@@ -1610,24 +1635,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1606812999" l="0" r="0" t="0" b="0" textRotation="3"/>
-        </ext>
-      </extLst>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1606816076" l="0" r="0" t="0" b="0" textRotation="3"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1637,10 +1704,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1606812999" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1606816076" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1606812999" count="11">
+      <pm:colors xmlns:pm="smNativeData" id="1606816076" count="11">
         <pm:color name="Цвет 24" rgb="865357"/>
         <pm:color name="Цвет 25" rgb="006411"/>
         <pm:color name="Цвет 26" rgb="DD0806"/>
@@ -1953,7 +2020,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1606812999" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1606816076" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1962,16 +2029,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1606812999" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1606812999" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606812999" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606812999" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1606816076" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1606816076" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606816076" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606816076" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606812999" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606816076" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1985,8 +2052,8 @@
   <dimension ref="A1:DU64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <pane xSplit="12" ySplit="7" topLeftCell="M40" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <pane xSplit="12" ySplit="7" topLeftCell="M41" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -1998,17 +2065,35 @@
     <col min="6" max="6" width="49.330357" customWidth="1"/>
     <col min="7" max="7" width="41.160714" customWidth="1"/>
     <col min="8" max="8" width="9.500000" customWidth="1"/>
-    <col min="9" max="9" width="3.660714" customWidth="1"/>
-    <col min="10" max="10" width="5.500000" customWidth="1"/>
+    <col min="9" max="9" width="3.660714" hidden="1" customWidth="1">
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:columnDef xmlns:pm="smNativeData" id="1606816076" min="9" max="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </col>
+    <col min="10" max="10" width="5.500000" hidden="1" customWidth="1">
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:columnDef xmlns:pm="smNativeData" id="1606816076" min="10" max="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </col>
     <col min="11" max="11" width="1.160714" hidden="1" customWidth="1">
       <extLst>
         <ext uri="smNativeData">
-          <pm:columnDef xmlns:pm="smNativeData" id="1606812999" min="11" max="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:columnDef xmlns:pm="smNativeData" id="1606816076" min="11" max="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </col>
-    <col min="12" max="12" width="2.160714" customWidth="1"/>
-    <col min="13" max="13" width="15.830357" customWidth="1"/>
+    <col min="12" max="12" width="2.160714" hidden="1" customWidth="1">
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:columnDef xmlns:pm="smNativeData" id="1606816076" min="12" max="12" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </col>
+    <col min="13" max="13" width="15.830357" customWidth="1" style="50"/>
     <col min="14" max="14" width="2.160714" customWidth="1"/>
     <col min="15" max="15" width="13.330357" customWidth="1"/>
     <col min="16" max="16" width="2.160714" customWidth="1"/>
@@ -2035,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="L1" s="11"/>
-      <c r="M1" s="16">
+      <c r="M1" s="51">
         <f>COUNTIF(M$8:M$45,"failed")</f>
         <v>0</v>
       </c>
@@ -2081,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="11"/>
-      <c r="M2" s="17">
+      <c r="M2" s="52">
         <f>COUNTIF(M$8:M$45,"passed")</f>
         <v>0</v>
       </c>
@@ -2127,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="11"/>
-      <c r="M3" s="20"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="11"/>
       <c r="O3" s="20"/>
       <c r="P3" s="11"/>
@@ -2158,7 +2243,9 @@
         <v>5</v>
       </c>
       <c r="L4" s="11"/>
-      <c r="M4" s="4"/>
+      <c r="M4" s="54" t="n">
+        <v>44166</v>
+      </c>
       <c r="N4" s="11"/>
       <c r="P4" s="11"/>
       <c r="R4" s="11"/>
@@ -2185,7 +2272,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="11"/>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="55" t="s">
         <v>7</v>
       </c>
       <c r="N5" s="11"/>
@@ -2213,44 +2300,44 @@
     </row>
     <row r="6" spans="1:27" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="22"/>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="39" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="56" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="11"/>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="35" t="s">
         <v>16</v>
       </c>
       <c r="P6" s="11"/>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="35"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="36"/>
+      <c r="S6" s="35"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="36"/>
+      <c r="U6" s="35"/>
       <c r="V6" s="11"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -2260,8 +2347,8 @@
     </row>
     <row r="7" spans="1:27" ht="67" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
         <v>17</v>
@@ -2272,20 +2359,20 @@
       <c r="G7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="36"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="36"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="36"/>
+      <c r="Q7" s="35"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="36"/>
+      <c r="S7" s="35"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="36"/>
+      <c r="U7" s="35"/>
       <c r="V7" s="11"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -2298,7 +2385,7 @@
       <c r="B8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2316,7 +2403,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="18"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="11"/>
       <c r="O8" s="6"/>
       <c r="P8" s="11"/>
@@ -2337,7 +2424,7 @@
       <c r="B9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2357,7 +2444,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="18"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="48"/>
       <c r="N9" s="11"/>
       <c r="O9" s="6"/>
       <c r="P9" s="11"/>
@@ -2378,7 +2465,7 @@
       <c r="B10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -2396,7 +2483,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="18"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="48"/>
       <c r="N10" s="11"/>
       <c r="O10" s="6"/>
       <c r="P10" s="11"/>
@@ -2417,7 +2504,7 @@
       <c r="B11" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2437,126 +2524,126 @@
       <c r="J11" s="27"/>
       <c r="K11" s="26"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="30"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="30"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="30"/>
-      <c r="BD11" s="31"/>
-      <c r="BE11" s="30"/>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="30"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="30"/>
-      <c r="BJ11" s="31"/>
-      <c r="BK11" s="30"/>
-      <c r="BL11" s="31"/>
-      <c r="BM11" s="30"/>
-      <c r="BN11" s="31"/>
-      <c r="BO11" s="30"/>
-      <c r="BP11" s="31"/>
-      <c r="BQ11" s="30"/>
-      <c r="BR11" s="31"/>
-      <c r="BS11" s="30"/>
-      <c r="BT11" s="31"/>
-      <c r="BU11" s="30"/>
-      <c r="BV11" s="31"/>
-      <c r="BW11" s="30"/>
-      <c r="BX11" s="31"/>
-      <c r="BY11" s="30"/>
-      <c r="BZ11" s="31"/>
-      <c r="CA11" s="32"/>
-      <c r="CB11" s="31"/>
-      <c r="CC11" s="30"/>
-      <c r="CD11" s="31"/>
-      <c r="CE11" s="30"/>
-      <c r="CF11" s="31"/>
-      <c r="CG11" s="30"/>
-      <c r="CH11" s="31"/>
-      <c r="CI11" s="32"/>
-      <c r="CJ11" s="31"/>
-      <c r="CK11" s="30"/>
-      <c r="CL11" s="31"/>
-      <c r="CM11" s="30"/>
-      <c r="CN11" s="31"/>
-      <c r="CO11" s="30"/>
-      <c r="CP11" s="31"/>
-      <c r="CQ11" s="30"/>
-      <c r="CR11" s="31"/>
-      <c r="CS11" s="30"/>
-      <c r="CT11" s="31"/>
-      <c r="CU11" s="30"/>
-      <c r="CV11" s="31"/>
-      <c r="CW11" s="30"/>
-      <c r="CX11" s="31"/>
-      <c r="CY11" s="30"/>
-      <c r="CZ11" s="29"/>
-      <c r="DA11" s="30"/>
-      <c r="DB11" s="29"/>
-      <c r="DC11" s="30"/>
-      <c r="DD11" s="29"/>
-      <c r="DE11" s="30"/>
-      <c r="DF11" s="29"/>
-      <c r="DG11" s="30"/>
-      <c r="DH11" s="29"/>
-      <c r="DI11" s="30"/>
-      <c r="DJ11" s="29"/>
-      <c r="DK11" s="30"/>
-      <c r="DL11" s="30"/>
-      <c r="DM11" s="30"/>
-      <c r="DN11" s="30"/>
-      <c r="DO11" s="33"/>
-      <c r="DP11" s="30"/>
-      <c r="DQ11" s="34"/>
-      <c r="DR11" s="34"/>
-      <c r="DS11" s="34"/>
-      <c r="DT11" s="34"/>
-      <c r="DU11" s="34"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="29"/>
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="29"/>
+      <c r="BD11" s="30"/>
+      <c r="BE11" s="29"/>
+      <c r="BF11" s="30"/>
+      <c r="BG11" s="29"/>
+      <c r="BH11" s="30"/>
+      <c r="BI11" s="29"/>
+      <c r="BJ11" s="30"/>
+      <c r="BK11" s="29"/>
+      <c r="BL11" s="30"/>
+      <c r="BM11" s="29"/>
+      <c r="BN11" s="30"/>
+      <c r="BO11" s="29"/>
+      <c r="BP11" s="30"/>
+      <c r="BQ11" s="29"/>
+      <c r="BR11" s="30"/>
+      <c r="BS11" s="29"/>
+      <c r="BT11" s="30"/>
+      <c r="BU11" s="29"/>
+      <c r="BV11" s="30"/>
+      <c r="BW11" s="29"/>
+      <c r="BX11" s="30"/>
+      <c r="BY11" s="29"/>
+      <c r="BZ11" s="30"/>
+      <c r="CA11" s="31"/>
+      <c r="CB11" s="30"/>
+      <c r="CC11" s="29"/>
+      <c r="CD11" s="30"/>
+      <c r="CE11" s="29"/>
+      <c r="CF11" s="30"/>
+      <c r="CG11" s="29"/>
+      <c r="CH11" s="30"/>
+      <c r="CI11" s="31"/>
+      <c r="CJ11" s="30"/>
+      <c r="CK11" s="29"/>
+      <c r="CL11" s="30"/>
+      <c r="CM11" s="29"/>
+      <c r="CN11" s="30"/>
+      <c r="CO11" s="29"/>
+      <c r="CP11" s="30"/>
+      <c r="CQ11" s="29"/>
+      <c r="CR11" s="30"/>
+      <c r="CS11" s="29"/>
+      <c r="CT11" s="30"/>
+      <c r="CU11" s="29"/>
+      <c r="CV11" s="30"/>
+      <c r="CW11" s="29"/>
+      <c r="CX11" s="30"/>
+      <c r="CY11" s="29"/>
+      <c r="CZ11" s="28"/>
+      <c r="DA11" s="29"/>
+      <c r="DB11" s="28"/>
+      <c r="DC11" s="29"/>
+      <c r="DD11" s="28"/>
+      <c r="DE11" s="29"/>
+      <c r="DF11" s="28"/>
+      <c r="DG11" s="29"/>
+      <c r="DH11" s="28"/>
+      <c r="DI11" s="29"/>
+      <c r="DJ11" s="28"/>
+      <c r="DK11" s="29"/>
+      <c r="DL11" s="29"/>
+      <c r="DM11" s="29"/>
+      <c r="DN11" s="29"/>
+      <c r="DO11" s="32"/>
+      <c r="DP11" s="29"/>
+      <c r="DQ11" s="33"/>
+      <c r="DR11" s="33"/>
+      <c r="DS11" s="33"/>
+      <c r="DT11" s="33"/>
+      <c r="DU11" s="33"/>
     </row>
     <row r="12" spans="1:27" ht="124" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2574,7 +2661,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="18"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="48"/>
       <c r="N12" s="11"/>
       <c r="O12" s="6"/>
       <c r="P12" s="11"/>
@@ -2595,7 +2682,7 @@
       <c r="B13" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
@@ -2613,7 +2700,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="18"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="6"/>
+      <c r="M13" s="48"/>
       <c r="N13" s="11"/>
       <c r="O13" s="6"/>
       <c r="P13" s="11"/>
@@ -2634,7 +2721,7 @@
       <c r="B14" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2652,7 +2739,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="18"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="48"/>
       <c r="N14" s="11"/>
       <c r="O14" s="6"/>
       <c r="P14" s="11"/>
@@ -2673,7 +2760,7 @@
       <c r="B15" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2691,7 +2778,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="18"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="48"/>
       <c r="N15" s="11"/>
       <c r="O15" s="6"/>
       <c r="P15" s="11"/>
@@ -2712,7 +2799,7 @@
       <c r="B16" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="44" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2730,7 +2817,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="18"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="48"/>
       <c r="N16" s="11"/>
       <c r="O16" s="6"/>
       <c r="P16" s="11"/>
@@ -2751,7 +2838,7 @@
       <c r="B17" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="44" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2771,7 +2858,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="18"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="6"/>
+      <c r="M17" s="48"/>
       <c r="N17" s="11"/>
       <c r="O17" s="6"/>
       <c r="P17" s="11"/>
@@ -2792,7 +2879,7 @@
       <c r="B18" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="44" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2810,7 +2897,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="18"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="48"/>
       <c r="N18" s="11"/>
       <c r="O18" s="6"/>
       <c r="P18" s="11"/>
@@ -2831,7 +2918,7 @@
       <c r="B19" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -2849,7 +2936,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="18"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="6"/>
+      <c r="M19" s="48"/>
       <c r="N19" s="11"/>
       <c r="O19" s="6"/>
       <c r="P19" s="11"/>
@@ -2877,7 +2964,7 @@
       <c r="E20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="47" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -2888,7 +2975,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="18"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="6"/>
+      <c r="M20" s="48"/>
       <c r="N20" s="11"/>
       <c r="O20" s="6"/>
       <c r="P20" s="11"/>
@@ -2916,7 +3003,7 @@
       <c r="E21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="47" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -2927,7 +3014,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="18"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="6"/>
+      <c r="M21" s="48"/>
       <c r="N21" s="11"/>
       <c r="O21" s="6"/>
       <c r="P21" s="11"/>
@@ -2955,7 +3042,7 @@
       <c r="E22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="47" t="s">
         <v>79</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -2966,7 +3053,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="18"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="48"/>
       <c r="N22" s="11"/>
       <c r="O22" s="6"/>
       <c r="P22" s="11"/>
@@ -2994,7 +3081,7 @@
       <c r="E23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="47" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -3005,7 +3092,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="18"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="6"/>
+      <c r="M23" s="48"/>
       <c r="N23" s="11"/>
       <c r="O23" s="6"/>
       <c r="P23" s="11"/>
@@ -3026,7 +3113,7 @@
       <c r="B24" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>84</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -3044,7 +3131,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="18"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="6"/>
+      <c r="M24" s="48"/>
       <c r="N24" s="11"/>
       <c r="O24" s="6"/>
       <c r="P24" s="11"/>
@@ -3065,14 +3152,14 @@
       <c r="B25" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>88</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="47" t="s">
         <v>90</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -3083,7 +3170,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="18"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="6"/>
+      <c r="M25" s="48"/>
       <c r="N25" s="11"/>
       <c r="O25" s="6"/>
       <c r="P25" s="11"/>
@@ -3109,7 +3196,7 @@
         <v>92</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="47" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -3120,7 +3207,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="18"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="6"/>
+      <c r="M26" s="48"/>
       <c r="N26" s="11"/>
       <c r="O26" s="6"/>
       <c r="P26" s="11"/>
@@ -3141,7 +3228,7 @@
       <c r="B27" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="44" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -3159,7 +3246,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="18"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="6"/>
+      <c r="M27" s="48"/>
       <c r="N27" s="11"/>
       <c r="O27" s="6"/>
       <c r="P27" s="11"/>
@@ -3196,7 +3283,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="18"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="6"/>
+      <c r="M28" s="48"/>
       <c r="N28" s="11"/>
       <c r="O28" s="6"/>
       <c r="P28" s="11"/>
@@ -3217,14 +3304,14 @@
       <c r="B29" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>102</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="47" t="s">
         <v>104</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -3235,7 +3322,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="18"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="6"/>
+      <c r="M29" s="48"/>
       <c r="N29" s="11"/>
       <c r="O29" s="6"/>
       <c r="P29" s="11"/>
@@ -3256,7 +3343,7 @@
       <c r="B30" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="44" t="s">
         <v>106</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -3274,7 +3361,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="18"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="6"/>
+      <c r="M30" s="48"/>
       <c r="N30" s="11"/>
       <c r="O30" s="6"/>
       <c r="P30" s="11"/>
@@ -3311,7 +3398,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="18"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="6"/>
+      <c r="M31" s="48"/>
       <c r="N31" s="11"/>
       <c r="O31" s="6"/>
       <c r="P31" s="11"/>
@@ -3348,7 +3435,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="18"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="6"/>
+      <c r="M32" s="48"/>
       <c r="N32" s="11"/>
       <c r="O32" s="6"/>
       <c r="P32" s="11"/>
@@ -3385,7 +3472,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="18"/>
       <c r="L33" s="10"/>
-      <c r="M33" s="6"/>
+      <c r="M33" s="48"/>
       <c r="N33" s="11"/>
       <c r="O33" s="6"/>
       <c r="P33" s="11"/>
@@ -3422,7 +3509,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="18"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="6"/>
+      <c r="M34" s="48"/>
       <c r="N34" s="11"/>
       <c r="O34" s="6"/>
       <c r="P34" s="11"/>
@@ -3459,7 +3546,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="18"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="6"/>
+      <c r="M35" s="48"/>
       <c r="N35" s="11"/>
       <c r="O35" s="6"/>
       <c r="P35" s="11"/>
@@ -3496,7 +3583,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="18"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="6"/>
+      <c r="M36" s="48"/>
       <c r="N36" s="11"/>
       <c r="O36" s="6"/>
       <c r="P36" s="11"/>
@@ -3533,7 +3620,7 @@
       <c r="J37" s="19"/>
       <c r="K37" s="18"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="6"/>
+      <c r="M37" s="48"/>
       <c r="N37" s="11"/>
       <c r="O37" s="6"/>
       <c r="P37" s="11"/>
@@ -3554,7 +3641,7 @@
       <c r="B38" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="44" t="s">
         <v>129</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -3574,7 +3661,7 @@
       <c r="J38" s="19"/>
       <c r="K38" s="18"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="6"/>
+      <c r="M38" s="48"/>
       <c r="N38" s="11"/>
       <c r="O38" s="6"/>
       <c r="P38" s="11"/>
@@ -3595,7 +3682,7 @@
       <c r="B39" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="4" t="s">
         <v>134</v>
       </c>
@@ -3613,7 +3700,7 @@
       <c r="J39" s="19"/>
       <c r="K39" s="18"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="6"/>
+      <c r="M39" s="48"/>
       <c r="N39" s="11"/>
       <c r="O39" s="6"/>
       <c r="P39" s="11"/>
@@ -3652,7 +3739,7 @@
       <c r="J40" s="19"/>
       <c r="K40" s="18"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="6"/>
+      <c r="M40" s="48"/>
       <c r="N40" s="11"/>
       <c r="O40" s="6"/>
       <c r="P40" s="11"/>
@@ -3691,7 +3778,7 @@
       <c r="J41" s="19"/>
       <c r="K41" s="18"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="6"/>
+      <c r="M41" s="48"/>
       <c r="N41" s="11"/>
       <c r="O41" s="6"/>
       <c r="P41" s="11"/>
@@ -3730,7 +3817,7 @@
       <c r="J42" s="19"/>
       <c r="K42" s="18"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="6"/>
+      <c r="M42" s="48"/>
       <c r="N42" s="11"/>
       <c r="O42" s="6"/>
       <c r="P42" s="11"/>
@@ -3746,22 +3833,30 @@
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" ht="62.95" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="4" t="n">
         <v>36</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="18"/>
       <c r="J43" s="19"/>
       <c r="K43" s="18"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="6"/>
+      <c r="M43" s="48"/>
       <c r="N43" s="11"/>
       <c r="O43" s="6"/>
       <c r="P43" s="11"/>
@@ -3792,7 +3887,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="6"/>
+      <c r="M44" s="48"/>
       <c r="N44" s="11"/>
       <c r="O44" s="6"/>
       <c r="P44" s="11"/>
@@ -3823,7 +3918,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="24"/>
       <c r="L45" s="15"/>
-      <c r="M45" s="6"/>
+      <c r="M45" s="48"/>
       <c r="N45" s="11"/>
       <c r="O45" s="6"/>
       <c r="P45" s="11"/>
@@ -3844,7 +3939,7 @@
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21">
@@ -3857,7 +3952,7 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
+      <c r="M46" s="58"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
@@ -3878,12 +3973,12 @@
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21">
         <f>COUNTA(D8:D45)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -3891,7 +3986,7 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
+      <c r="M47" s="58"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
@@ -3912,7 +4007,7 @@
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21">
@@ -3925,7 +4020,7 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
+      <c r="M48" s="58"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
@@ -3953,7 +4048,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+      <c r="M49" s="59"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -3981,7 +4076,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="M50" s="59"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -4010,7 +4105,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
+      <c r="M51" s="59"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -4039,7 +4134,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="M52" s="59"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -4068,7 +4163,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="M53" s="59"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -4097,7 +4192,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="M54" s="59"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -4126,7 +4221,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+      <c r="M55" s="59"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -4155,7 +4250,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
+      <c r="M56" s="59"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -4184,7 +4279,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+      <c r="M57" s="59"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -4213,7 +4308,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+      <c r="M58" s="59"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -4242,7 +4337,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="M59" s="59"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -4271,7 +4366,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
+      <c r="M60" s="59"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
@@ -4338,7 +4433,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1606812999" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1606816076" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4347,16 +4442,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1606812999" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1606812999" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606812999" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606812999" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1606816076" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1606816076" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606816076" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606816076" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606812999" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606816076" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
